--- a/kostraleveranse2021/Kostra 07 - Fylkesveg maks 50kmt.xlsx
+++ b/kostraleveranse2021/Kostra 07 - Fylkesveg maks 50kmt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Fv 50km eller lavere" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fv 50km eller lavere" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,20 +47,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="overskrift" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="overskrift" xfId="1" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,8 +430,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -450,7 +451,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>640446</v>
+        <v>644056</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +459,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>463065</v>
+        <v>462179</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +467,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>430018</v>
+        <v>430761</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +475,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>981033</v>
+        <v>983281</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +483,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>523943</v>
+        <v>524046</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +491,7 @@
         <v>38</v>
       </c>
       <c r="B7" t="n">
-        <v>450253</v>
+        <v>440958</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +499,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="n">
-        <v>602954</v>
+        <v>603341</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +507,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="n">
-        <v>1196970</v>
+        <v>1198746</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +515,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>669670</v>
+        <v>665150</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +527,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -544,8 +545,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -580,7 +581,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-01-07</t>
+          <t>2022-09-21</t>
         </is>
       </c>
     </row>
@@ -645,6 +646,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>